--- a/user-data/in-oda-and-repayments/in-oda-and-repayments.xlsx
+++ b/user-data/in-oda-and-repayments/in-oda-and-repayments.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="366">
   <si>
     <t>id</t>
   </si>
@@ -1095,9 +1095,6 @@
     <t>Source: Development Initiatives based on OECD-DAC data</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1477,22 +1474,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11">
@@ -1508,11 +1505,6 @@
     <row r="13">
       <c r="A13" t="s">
         <v>365</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/in-oda-and-repayments/in-oda-and-repayments.xlsx
+++ b/user-data/in-oda-and-repayments/in-oda-and-repayments.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="367">
   <si>
     <t>id</t>
   </si>
@@ -1104,7 +1104,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1507,6 +1510,11 @@
         <v>365</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>366</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/in-oda-and-repayments/in-oda-and-repayments.xlsx
+++ b/user-data/in-oda-and-repayments/in-oda-and-repayments.xlsx
@@ -78,7 +78,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -162,7 +162,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -187,12 +187,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -271,6 +265,12 @@
   </si>
   <si>
     <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>HR</t>
@@ -780,7 +780,7 @@
     <t>SH</t>
   </si>
   <si>
-    <t>Saint Helena, Ascension and Tristan da Cunha</t>
+    <t>Saint Helena, Ascension &amp; Tristan da Cunha</t>
   </si>
   <si>
     <t>KN</t>
@@ -798,7 +798,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -810,7 +810,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -978,7 +978,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1002,7 +1002,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1056,7 +1056,7 @@
     <t>WF</t>
   </si>
   <si>
-    <t>Wallis and Futuna</t>
+    <t>Wallis &amp; Futuna</t>
   </si>
   <si>
     <t>west-indies</t>
@@ -1113,7 +1113,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -8840,13 +8840,13 @@
         <v>2000</v>
       </c>
       <c r="D366" t="n">
-        <v>783440000</v>
+        <v>625580000</v>
       </c>
       <c r="E366" t="n">
-        <v>214990000</v>
+        <v>11300000</v>
       </c>
       <c r="F366" t="n">
-        <v>22860000</v>
+        <v>5490000</v>
       </c>
     </row>
     <row r="367">
@@ -8860,13 +8860,13 @@
         <v>2001</v>
       </c>
       <c r="D367" t="n">
-        <v>527940000</v>
+        <v>690480000</v>
       </c>
       <c r="E367" t="n">
-        <v>201980000</v>
+        <v>19710000</v>
       </c>
       <c r="F367" t="n">
-        <v>21590000</v>
+        <v>6550000</v>
       </c>
     </row>
     <row r="368">
@@ -8880,13 +8880,13 @@
         <v>2002</v>
       </c>
       <c r="D368" t="n">
-        <v>2181840000</v>
+        <v>767310000</v>
       </c>
       <c r="E368" t="n">
-        <v>467410000</v>
+        <v>20440000</v>
       </c>
       <c r="F368" t="n">
-        <v>41710000</v>
+        <v>8370000</v>
       </c>
     </row>
     <row r="369">
@@ -8900,13 +8900,13 @@
         <v>2003</v>
       </c>
       <c r="D369" t="n">
-        <v>576950000</v>
+        <v>719850000</v>
       </c>
       <c r="E369" t="n">
-        <v>246420000</v>
+        <v>20600000</v>
       </c>
       <c r="F369" t="n">
-        <v>37730000</v>
+        <v>9710000</v>
       </c>
     </row>
     <row r="370">
@@ -8920,13 +8920,13 @@
         <v>2004</v>
       </c>
       <c r="D370" t="n">
-        <v>421570000</v>
+        <v>624250000</v>
       </c>
       <c r="E370" t="n">
-        <v>230740000</v>
+        <v>19370000</v>
       </c>
       <c r="F370" t="n">
-        <v>11130000</v>
+        <v>11900000</v>
       </c>
     </row>
     <row r="371">
@@ -8940,13 +8940,13 @@
         <v>2005</v>
       </c>
       <c r="D371" t="n">
-        <v>272810000</v>
+        <v>672020000</v>
       </c>
       <c r="E371" t="n">
-        <v>165690000</v>
+        <v>20330000</v>
       </c>
       <c r="F371" t="n">
-        <v>2490000</v>
+        <v>12970000</v>
       </c>
     </row>
     <row r="372">
@@ -8960,13 +8960,13 @@
         <v>2006</v>
       </c>
       <c r="D372" t="n">
-        <v>402010000</v>
+        <v>750980000</v>
       </c>
       <c r="E372" t="n">
-        <v>121470000</v>
+        <v>109800000</v>
       </c>
       <c r="F372" t="n">
-        <v>8860000</v>
+        <v>13060000</v>
       </c>
     </row>
     <row r="373">
@@ -8980,13 +8980,13 @@
         <v>2007</v>
       </c>
       <c r="D373" t="n">
-        <v>325760000</v>
+        <v>771700000</v>
       </c>
       <c r="E373" t="n">
-        <v>143550000</v>
+        <v>19230000</v>
       </c>
       <c r="F373" t="n">
-        <v>16210000</v>
+        <v>13260000</v>
       </c>
     </row>
     <row r="374">
@@ -9000,13 +9000,13 @@
         <v>2008</v>
       </c>
       <c r="D374" t="n">
-        <v>831270000</v>
+        <v>807230000</v>
       </c>
       <c r="E374" t="n">
-        <v>205100000</v>
+        <v>19880000</v>
       </c>
       <c r="F374" t="n">
-        <v>66290000</v>
+        <v>15020000</v>
       </c>
     </row>
     <row r="375">
@@ -9020,13 +9020,13 @@
         <v>2009</v>
       </c>
       <c r="D375" t="n">
-        <v>2556070000</v>
+        <v>805490000</v>
       </c>
       <c r="E375" t="n">
-        <v>164120000</v>
+        <v>27040000</v>
       </c>
       <c r="F375" t="n">
-        <v>54760000</v>
+        <v>16230000</v>
       </c>
     </row>
     <row r="376">
@@ -9040,13 +9040,13 @@
         <v>2010</v>
       </c>
       <c r="D376" t="n">
-        <v>982170000</v>
+        <v>806170000</v>
       </c>
       <c r="E376" t="n">
-        <v>113160000</v>
+        <v>35600000</v>
       </c>
       <c r="F376" t="n">
-        <v>32810000</v>
+        <v>16130000</v>
       </c>
     </row>
     <row r="377">
@@ -9060,13 +9060,13 @@
         <v>2011</v>
       </c>
       <c r="D377" t="n">
-        <v>1493390000</v>
+        <v>854100000</v>
       </c>
       <c r="E377" t="n">
-        <v>114040000</v>
+        <v>79490000</v>
       </c>
       <c r="F377" t="n">
-        <v>25590000</v>
+        <v>17900000</v>
       </c>
     </row>
     <row r="378">
@@ -9080,13 +9080,13 @@
         <v>2012</v>
       </c>
       <c r="D378" t="n">
-        <v>4696970000</v>
+        <v>860210000</v>
       </c>
       <c r="E378" t="n">
-        <v>2061350000</v>
+        <v>52800000</v>
       </c>
       <c r="F378" t="n">
-        <v>30850000</v>
+        <v>21040000</v>
       </c>
     </row>
     <row r="379">
@@ -9100,13 +9100,13 @@
         <v>2013</v>
       </c>
       <c r="D379" t="n">
-        <v>2097770000</v>
+        <v>895140000</v>
       </c>
       <c r="E379" t="n">
-        <v>856900000</v>
+        <v>64560000</v>
       </c>
       <c r="F379" t="n">
-        <v>18250000</v>
+        <v>22030000</v>
       </c>
     </row>
     <row r="380">
@@ -9120,13 +9120,13 @@
         <v>2000</v>
       </c>
       <c r="D380" t="n">
-        <v>625580000</v>
+        <v>846540000</v>
       </c>
       <c r="E380" t="n">
-        <v>11300000</v>
+        <v>237640000</v>
       </c>
       <c r="F380" t="n">
-        <v>5490000</v>
+        <v>19920000</v>
       </c>
     </row>
     <row r="381">
@@ -9140,13 +9140,13 @@
         <v>2001</v>
       </c>
       <c r="D381" t="n">
-        <v>690480000</v>
+        <v>977390000</v>
       </c>
       <c r="E381" t="n">
-        <v>19710000</v>
+        <v>216340000</v>
       </c>
       <c r="F381" t="n">
-        <v>6550000</v>
+        <v>15830000</v>
       </c>
     </row>
     <row r="382">
@@ -9160,13 +9160,13 @@
         <v>2002</v>
       </c>
       <c r="D382" t="n">
-        <v>767310000</v>
+        <v>1238070000</v>
       </c>
       <c r="E382" t="n">
-        <v>20440000</v>
+        <v>257210000</v>
       </c>
       <c r="F382" t="n">
-        <v>8370000</v>
+        <v>37870000</v>
       </c>
     </row>
     <row r="383">
@@ -9180,13 +9180,13 @@
         <v>2003</v>
       </c>
       <c r="D383" t="n">
-        <v>719850000</v>
+        <v>1388590000</v>
       </c>
       <c r="E383" t="n">
-        <v>20600000</v>
+        <v>235200000</v>
       </c>
       <c r="F383" t="n">
-        <v>9710000</v>
+        <v>85350000</v>
       </c>
     </row>
     <row r="384">
@@ -9200,13 +9200,13 @@
         <v>2004</v>
       </c>
       <c r="D384" t="n">
-        <v>624250000</v>
+        <v>1173210000</v>
       </c>
       <c r="E384" t="n">
-        <v>19370000</v>
+        <v>226840000</v>
       </c>
       <c r="F384" t="n">
-        <v>11900000</v>
+        <v>51090000</v>
       </c>
     </row>
     <row r="385">
@@ -9220,13 +9220,13 @@
         <v>2005</v>
       </c>
       <c r="D385" t="n">
-        <v>672020000</v>
+        <v>766770000</v>
       </c>
       <c r="E385" t="n">
-        <v>20330000</v>
+        <v>281460000</v>
       </c>
       <c r="F385" t="n">
-        <v>12970000</v>
+        <v>26300000</v>
       </c>
     </row>
     <row r="386">
@@ -9240,13 +9240,13 @@
         <v>2006</v>
       </c>
       <c r="D386" t="n">
-        <v>750980000</v>
+        <v>3946050000</v>
       </c>
       <c r="E386" t="n">
-        <v>109800000</v>
+        <v>1986960000</v>
       </c>
       <c r="F386" t="n">
-        <v>13060000</v>
+        <v>111030000</v>
       </c>
     </row>
     <row r="387">
@@ -9260,13 +9260,13 @@
         <v>2007</v>
       </c>
       <c r="D387" t="n">
-        <v>771700000</v>
+        <v>2155600000</v>
       </c>
       <c r="E387" t="n">
-        <v>19230000</v>
+        <v>192810000</v>
       </c>
       <c r="F387" t="n">
-        <v>13260000</v>
+        <v>91980000</v>
       </c>
     </row>
     <row r="388">
@@ -9280,13 +9280,13 @@
         <v>2008</v>
       </c>
       <c r="D388" t="n">
-        <v>807230000</v>
+        <v>1122350000</v>
       </c>
       <c r="E388" t="n">
-        <v>19880000</v>
+        <v>585860000</v>
       </c>
       <c r="F388" t="n">
-        <v>15020000</v>
+        <v>58410000</v>
       </c>
     </row>
     <row r="389">
@@ -9300,13 +9300,13 @@
         <v>2009</v>
       </c>
       <c r="D389" t="n">
-        <v>805490000</v>
+        <v>803050000</v>
       </c>
       <c r="E389" t="n">
-        <v>27040000</v>
+        <v>145120000</v>
       </c>
       <c r="F389" t="n">
-        <v>16230000</v>
+        <v>46720000</v>
       </c>
     </row>
     <row r="390">
@@ -9320,13 +9320,13 @@
         <v>2010</v>
       </c>
       <c r="D390" t="n">
-        <v>806170000</v>
+        <v>679460000</v>
       </c>
       <c r="E390" t="n">
-        <v>35600000</v>
+        <v>127540000</v>
       </c>
       <c r="F390" t="n">
-        <v>16130000</v>
+        <v>48860000</v>
       </c>
     </row>
     <row r="391">
@@ -9340,13 +9340,13 @@
         <v>2011</v>
       </c>
       <c r="D391" t="n">
-        <v>854100000</v>
+        <v>667830000</v>
       </c>
       <c r="E391" t="n">
-        <v>79490000</v>
+        <v>81150000</v>
       </c>
       <c r="F391" t="n">
-        <v>17900000</v>
+        <v>12190000</v>
       </c>
     </row>
     <row r="392">
@@ -9360,13 +9360,13 @@
         <v>2012</v>
       </c>
       <c r="D392" t="n">
-        <v>860210000</v>
+        <v>692150000</v>
       </c>
       <c r="E392" t="n">
-        <v>52800000</v>
+        <v>95910000</v>
       </c>
       <c r="F392" t="n">
-        <v>21040000</v>
+        <v>25260000</v>
       </c>
     </row>
     <row r="393">
@@ -9380,13 +9380,13 @@
         <v>2013</v>
       </c>
       <c r="D393" t="n">
-        <v>895140000</v>
+        <v>768480000</v>
       </c>
       <c r="E393" t="n">
-        <v>64560000</v>
+        <v>39380000</v>
       </c>
       <c r="F393" t="n">
-        <v>22030000</v>
+        <v>11540000</v>
       </c>
     </row>
     <row r="394">
@@ -9400,13 +9400,13 @@
         <v>2000</v>
       </c>
       <c r="D394" t="n">
-        <v>846540000</v>
+        <v>164830000</v>
       </c>
       <c r="E394" t="n">
-        <v>237640000</v>
+        <v>10460000</v>
       </c>
       <c r="F394" t="n">
-        <v>19920000</v>
+        <v>3040000</v>
       </c>
     </row>
     <row r="395">
@@ -9420,13 +9420,13 @@
         <v>2001</v>
       </c>
       <c r="D395" t="n">
-        <v>977390000</v>
+        <v>136830000</v>
       </c>
       <c r="E395" t="n">
-        <v>216340000</v>
+        <v>7710000</v>
       </c>
       <c r="F395" t="n">
-        <v>15830000</v>
+        <v>4040000</v>
       </c>
     </row>
     <row r="396">
@@ -9440,13 +9440,13 @@
         <v>2002</v>
       </c>
       <c r="D396" t="n">
-        <v>1238070000</v>
+        <v>155490000</v>
       </c>
       <c r="E396" t="n">
-        <v>257210000</v>
+        <v>11270000</v>
       </c>
       <c r="F396" t="n">
-        <v>37870000</v>
+        <v>4870000</v>
       </c>
     </row>
     <row r="397">
@@ -9460,13 +9460,13 @@
         <v>2003</v>
       </c>
       <c r="D397" t="n">
-        <v>1388590000</v>
+        <v>204360000</v>
       </c>
       <c r="E397" t="n">
-        <v>235200000</v>
+        <v>8660000</v>
       </c>
       <c r="F397" t="n">
-        <v>85350000</v>
+        <v>4270000</v>
       </c>
     </row>
     <row r="398">
@@ -9480,13 +9480,13 @@
         <v>2004</v>
       </c>
       <c r="D398" t="n">
-        <v>1173210000</v>
+        <v>186660000</v>
       </c>
       <c r="E398" t="n">
-        <v>226840000</v>
+        <v>13770000</v>
       </c>
       <c r="F398" t="n">
-        <v>51090000</v>
+        <v>5490000</v>
       </c>
     </row>
     <row r="399">
@@ -9500,13 +9500,13 @@
         <v>2005</v>
       </c>
       <c r="D399" t="n">
-        <v>766770000</v>
+        <v>208240000</v>
       </c>
       <c r="E399" t="n">
-        <v>281460000</v>
+        <v>17850000</v>
       </c>
       <c r="F399" t="n">
-        <v>26300000</v>
+        <v>5140000</v>
       </c>
     </row>
     <row r="400">
@@ -9520,13 +9520,13 @@
         <v>2006</v>
       </c>
       <c r="D400" t="n">
-        <v>3946050000</v>
+        <v>173360000</v>
       </c>
       <c r="E400" t="n">
-        <v>1986960000</v>
+        <v>17010000</v>
       </c>
       <c r="F400" t="n">
-        <v>111030000</v>
+        <v>5600000</v>
       </c>
     </row>
     <row r="401">
@@ -9540,13 +9540,13 @@
         <v>2007</v>
       </c>
       <c r="D401" t="n">
-        <v>2155600000</v>
+        <v>186350000</v>
       </c>
       <c r="E401" t="n">
-        <v>192810000</v>
+        <v>17840000</v>
       </c>
       <c r="F401" t="n">
-        <v>91980000</v>
+        <v>5470000</v>
       </c>
     </row>
     <row r="402">
@@ -9560,13 +9560,13 @@
         <v>2008</v>
       </c>
       <c r="D402" t="n">
-        <v>1122350000</v>
+        <v>230110000</v>
       </c>
       <c r="E402" t="n">
-        <v>585860000</v>
+        <v>16510000</v>
       </c>
       <c r="F402" t="n">
-        <v>58410000</v>
+        <v>6970000</v>
       </c>
     </row>
     <row r="403">
@@ -9580,13 +9580,13 @@
         <v>2009</v>
       </c>
       <c r="D403" t="n">
-        <v>803050000</v>
+        <v>214690000</v>
       </c>
       <c r="E403" t="n">
-        <v>145120000</v>
+        <v>20480000</v>
       </c>
       <c r="F403" t="n">
-        <v>46720000</v>
+        <v>6680000</v>
       </c>
     </row>
     <row r="404">
@@ -9600,13 +9600,13 @@
         <v>2010</v>
       </c>
       <c r="D404" t="n">
-        <v>679460000</v>
+        <v>348810000</v>
       </c>
       <c r="E404" t="n">
-        <v>127540000</v>
+        <v>20860000</v>
       </c>
       <c r="F404" t="n">
-        <v>48860000</v>
+        <v>6300000</v>
       </c>
     </row>
     <row r="405">
@@ -9620,13 +9620,13 @@
         <v>2011</v>
       </c>
       <c r="D405" t="n">
-        <v>667830000</v>
+        <v>264500000</v>
       </c>
       <c r="E405" t="n">
-        <v>81150000</v>
+        <v>28070000</v>
       </c>
       <c r="F405" t="n">
-        <v>12190000</v>
+        <v>16720000</v>
       </c>
     </row>
     <row r="406">
@@ -9640,13 +9640,13 @@
         <v>2012</v>
       </c>
       <c r="D406" t="n">
-        <v>692150000</v>
+        <v>267850000</v>
       </c>
       <c r="E406" t="n">
-        <v>95910000</v>
+        <v>21710000</v>
       </c>
       <c r="F406" t="n">
-        <v>25260000</v>
+        <v>11310000</v>
       </c>
     </row>
     <row r="407">
@@ -9660,13 +9660,13 @@
         <v>2013</v>
       </c>
       <c r="D407" t="n">
-        <v>768480000</v>
+        <v>261860000</v>
       </c>
       <c r="E407" t="n">
-        <v>39380000</v>
+        <v>24570000</v>
       </c>
       <c r="F407" t="n">
-        <v>11540000</v>
+        <v>12280000</v>
       </c>
     </row>
     <row r="408">
@@ -9680,13 +9680,13 @@
         <v>2000</v>
       </c>
       <c r="D408" t="n">
-        <v>164830000</v>
+        <v>138930000</v>
       </c>
       <c r="E408" t="n">
-        <v>10460000</v>
+        <v>26550000</v>
       </c>
       <c r="F408" t="n">
-        <v>3040000</v>
+        <v>5270000</v>
       </c>
     </row>
     <row r="409">
@@ -9700,13 +9700,13 @@
         <v>2001</v>
       </c>
       <c r="D409" t="n">
-        <v>136830000</v>
+        <v>146600000</v>
       </c>
       <c r="E409" t="n">
-        <v>7710000</v>
+        <v>24150000</v>
       </c>
       <c r="F409" t="n">
-        <v>4040000</v>
+        <v>4840000</v>
       </c>
     </row>
     <row r="410">
@@ -9720,13 +9720,13 @@
         <v>2002</v>
       </c>
       <c r="D410" t="n">
-        <v>155490000</v>
+        <v>103710000</v>
       </c>
       <c r="E410" t="n">
-        <v>11270000</v>
+        <v>11990000</v>
       </c>
       <c r="F410" t="n">
-        <v>4870000</v>
+        <v>410000</v>
       </c>
     </row>
     <row r="411">
@@ -9740,13 +9740,13 @@
         <v>2003</v>
       </c>
       <c r="D411" t="n">
-        <v>204360000</v>
+        <v>76950000</v>
       </c>
       <c r="E411" t="n">
-        <v>8660000</v>
+        <v>9100000</v>
       </c>
       <c r="F411" t="n">
-        <v>4270000</v>
+        <v>2240000</v>
       </c>
     </row>
     <row r="412">
@@ -9760,13 +9760,13 @@
         <v>2004</v>
       </c>
       <c r="D412" t="n">
-        <v>186660000</v>
+        <v>140690000</v>
       </c>
       <c r="E412" t="n">
-        <v>13770000</v>
+        <v>10240000</v>
       </c>
       <c r="F412" t="n">
-        <v>5490000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="413">
@@ -9780,13 +9780,13 @@
         <v>2005</v>
       </c>
       <c r="D413" t="n">
-        <v>208240000</v>
+        <v>116500000</v>
       </c>
       <c r="E413" t="n">
-        <v>17850000</v>
+        <v>12570000</v>
       </c>
       <c r="F413" t="n">
-        <v>5140000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="414">
@@ -9800,13 +9800,13 @@
         <v>2006</v>
       </c>
       <c r="D414" t="n">
-        <v>173360000</v>
+        <v>220940000</v>
       </c>
       <c r="E414" t="n">
-        <v>17010000</v>
+        <v>67900000</v>
       </c>
       <c r="F414" t="n">
-        <v>5600000</v>
+        <v>20640000</v>
       </c>
     </row>
     <row r="415">
@@ -9820,13 +9820,13 @@
         <v>2007</v>
       </c>
       <c r="D415" t="n">
-        <v>186350000</v>
+        <v>242680000</v>
       </c>
       <c r="E415" t="n">
-        <v>17840000</v>
+        <v>59370000</v>
       </c>
       <c r="F415" t="n">
-        <v>5470000</v>
+        <v>19770000</v>
       </c>
     </row>
     <row r="416">
@@ -9840,13 +9840,13 @@
         <v>2008</v>
       </c>
       <c r="D416" t="n">
-        <v>230110000</v>
+        <v>291300000</v>
       </c>
       <c r="E416" t="n">
-        <v>16510000</v>
+        <v>31940000</v>
       </c>
       <c r="F416" t="n">
-        <v>6970000</v>
+        <v>8320000</v>
       </c>
     </row>
     <row r="417">
@@ -9860,13 +9860,13 @@
         <v>2009</v>
       </c>
       <c r="D417" t="n">
-        <v>214690000</v>
+        <v>829940000</v>
       </c>
       <c r="E417" t="n">
-        <v>20480000</v>
+        <v>583750000</v>
       </c>
       <c r="F417" t="n">
-        <v>6680000</v>
+        <v>6890000</v>
       </c>
     </row>
     <row r="418">
@@ -9880,13 +9880,13 @@
         <v>2010</v>
       </c>
       <c r="D418" t="n">
-        <v>348810000</v>
+        <v>281180000</v>
       </c>
       <c r="E418" t="n">
-        <v>20860000</v>
+        <v>13380000</v>
       </c>
       <c r="F418" t="n">
-        <v>6300000</v>
+        <v>990000</v>
       </c>
     </row>
     <row r="419">
@@ -9900,13 +9900,13 @@
         <v>2011</v>
       </c>
       <c r="D419" t="n">
-        <v>264500000</v>
+        <v>266960000</v>
       </c>
       <c r="E419" t="n">
-        <v>28070000</v>
+        <v>7580000</v>
       </c>
       <c r="F419" t="n">
-        <v>16720000</v>
+        <v>1540000</v>
       </c>
     </row>
     <row r="420">
@@ -9920,13 +9920,13 @@
         <v>2012</v>
       </c>
       <c r="D420" t="n">
-        <v>267850000</v>
+        <v>236440000</v>
       </c>
       <c r="E420" t="n">
-        <v>21710000</v>
+        <v>9170000</v>
       </c>
       <c r="F420" t="n">
-        <v>11310000</v>
+        <v>830000</v>
       </c>
     </row>
     <row r="421">
@@ -9940,13 +9940,13 @@
         <v>2013</v>
       </c>
       <c r="D421" t="n">
-        <v>261860000</v>
+        <v>195030000</v>
       </c>
       <c r="E421" t="n">
-        <v>24570000</v>
+        <v>9130000</v>
       </c>
       <c r="F421" t="n">
-        <v>12280000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="422">
@@ -9960,13 +9960,13 @@
         <v>2000</v>
       </c>
       <c r="D422" t="n">
-        <v>138930000</v>
+        <v>0</v>
       </c>
       <c r="E422" t="n">
-        <v>26550000</v>
+        <v>0</v>
       </c>
       <c r="F422" t="n">
-        <v>5270000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -9980,13 +9980,13 @@
         <v>2001</v>
       </c>
       <c r="D423" t="n">
-        <v>146600000</v>
+        <v>0</v>
       </c>
       <c r="E423" t="n">
-        <v>24150000</v>
+        <v>0</v>
       </c>
       <c r="F423" t="n">
-        <v>4840000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -10000,13 +10000,13 @@
         <v>2002</v>
       </c>
       <c r="D424" t="n">
-        <v>103710000</v>
+        <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>11990000</v>
+        <v>0</v>
       </c>
       <c r="F424" t="n">
-        <v>410000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -10020,13 +10020,13 @@
         <v>2003</v>
       </c>
       <c r="D425" t="n">
-        <v>76950000</v>
+        <v>0</v>
       </c>
       <c r="E425" t="n">
-        <v>9100000</v>
+        <v>0</v>
       </c>
       <c r="F425" t="n">
-        <v>2240000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -10040,13 +10040,13 @@
         <v>2004</v>
       </c>
       <c r="D426" t="n">
-        <v>140690000</v>
+        <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>10240000</v>
+        <v>0</v>
       </c>
       <c r="F426" t="n">
-        <v>210000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -10060,13 +10060,13 @@
         <v>2005</v>
       </c>
       <c r="D427" t="n">
-        <v>116500000</v>
+        <v>8780000</v>
       </c>
       <c r="E427" t="n">
-        <v>12570000</v>
+        <v>0</v>
       </c>
       <c r="F427" t="n">
-        <v>180000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
@@ -10080,13 +10080,13 @@
         <v>2006</v>
       </c>
       <c r="D428" t="n">
-        <v>220940000</v>
+        <v>173710000</v>
       </c>
       <c r="E428" t="n">
-        <v>67900000</v>
+        <v>1650000</v>
       </c>
       <c r="F428" t="n">
-        <v>20640000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
@@ -10100,13 +10100,13 @@
         <v>2007</v>
       </c>
       <c r="D429" t="n">
-        <v>242680000</v>
+        <v>265480000</v>
       </c>
       <c r="E429" t="n">
-        <v>59370000</v>
+        <v>0</v>
       </c>
       <c r="F429" t="n">
-        <v>19770000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -10120,13 +10120,13 @@
         <v>2008</v>
       </c>
       <c r="D430" t="n">
-        <v>291300000</v>
+        <v>292030000</v>
       </c>
       <c r="E430" t="n">
-        <v>31940000</v>
+        <v>0</v>
       </c>
       <c r="F430" t="n">
-        <v>8320000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -10140,13 +10140,13 @@
         <v>2009</v>
       </c>
       <c r="D431" t="n">
-        <v>829940000</v>
+        <v>364850000</v>
       </c>
       <c r="E431" t="n">
-        <v>583750000</v>
+        <v>0</v>
       </c>
       <c r="F431" t="n">
-        <v>6890000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -10160,13 +10160,13 @@
         <v>2010</v>
       </c>
       <c r="D432" t="n">
-        <v>281180000</v>
+        <v>206440000</v>
       </c>
       <c r="E432" t="n">
-        <v>13380000</v>
+        <v>40000</v>
       </c>
       <c r="F432" t="n">
-        <v>990000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -10180,13 +10180,13 @@
         <v>2011</v>
       </c>
       <c r="D433" t="n">
-        <v>266960000</v>
+        <v>172960000</v>
       </c>
       <c r="E433" t="n">
-        <v>7580000</v>
+        <v>130000</v>
       </c>
       <c r="F433" t="n">
-        <v>1540000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -10200,13 +10200,13 @@
         <v>2012</v>
       </c>
       <c r="D434" t="n">
-        <v>236440000</v>
+        <v>202680000</v>
       </c>
       <c r="E434" t="n">
-        <v>9170000</v>
+        <v>20000</v>
       </c>
       <c r="F434" t="n">
-        <v>830000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
@@ -10220,13 +10220,13 @@
         <v>2013</v>
       </c>
       <c r="D435" t="n">
-        <v>195030000</v>
+        <v>227770000</v>
       </c>
       <c r="E435" t="n">
-        <v>9130000</v>
+        <v>270000</v>
       </c>
       <c r="F435" t="n">
-        <v>700000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -10240,13 +10240,13 @@
         <v>2000</v>
       </c>
       <c r="D436" t="n">
-        <v>0</v>
+        <v>236310000</v>
       </c>
       <c r="E436" t="n">
-        <v>0</v>
+        <v>24410000</v>
       </c>
       <c r="F436" t="n">
-        <v>0</v>
+        <v>7760000</v>
       </c>
     </row>
     <row r="437">
@@ -10260,13 +10260,13 @@
         <v>2001</v>
       </c>
       <c r="D437" t="n">
-        <v>0</v>
+        <v>342900000</v>
       </c>
       <c r="E437" t="n">
-        <v>0</v>
+        <v>29790000</v>
       </c>
       <c r="F437" t="n">
-        <v>0</v>
+        <v>7230000</v>
       </c>
     </row>
     <row r="438">
@@ -10280,13 +10280,13 @@
         <v>2002</v>
       </c>
       <c r="D438" t="n">
-        <v>0</v>
+        <v>405240000</v>
       </c>
       <c r="E438" t="n">
-        <v>0</v>
+        <v>48220000</v>
       </c>
       <c r="F438" t="n">
-        <v>0</v>
+        <v>12280000</v>
       </c>
     </row>
     <row r="439">
@@ -10300,13 +10300,13 @@
         <v>2003</v>
       </c>
       <c r="D439" t="n">
-        <v>0</v>
+        <v>392460000</v>
       </c>
       <c r="E439" t="n">
-        <v>0</v>
+        <v>56220000</v>
       </c>
       <c r="F439" t="n">
-        <v>0</v>
+        <v>13250000</v>
       </c>
     </row>
     <row r="440">
@@ -10320,13 +10320,13 @@
         <v>2004</v>
       </c>
       <c r="D440" t="n">
-        <v>0</v>
+        <v>450730000</v>
       </c>
       <c r="E440" t="n">
-        <v>0</v>
+        <v>46780000</v>
       </c>
       <c r="F440" t="n">
-        <v>0</v>
+        <v>12400000</v>
       </c>
     </row>
     <row r="441">
@@ -10340,13 +10340,13 @@
         <v>2005</v>
       </c>
       <c r="D441" t="n">
-        <v>8780000</v>
+        <v>515790000</v>
       </c>
       <c r="E441" t="n">
-        <v>0</v>
+        <v>60850000</v>
       </c>
       <c r="F441" t="n">
-        <v>0</v>
+        <v>13740000</v>
       </c>
     </row>
     <row r="442">
@@ -10360,13 +10360,13 @@
         <v>2006</v>
       </c>
       <c r="D442" t="n">
-        <v>173710000</v>
+        <v>388780000</v>
       </c>
       <c r="E442" t="n">
-        <v>1650000</v>
+        <v>56620000</v>
       </c>
       <c r="F442" t="n">
-        <v>0</v>
+        <v>13880000</v>
       </c>
     </row>
     <row r="443">
@@ -10380,13 +10380,13 @@
         <v>2007</v>
       </c>
       <c r="D443" t="n">
-        <v>265480000</v>
+        <v>427550000</v>
       </c>
       <c r="E443" t="n">
-        <v>0</v>
+        <v>49200000</v>
       </c>
       <c r="F443" t="n">
-        <v>0</v>
+        <v>13300000</v>
       </c>
     </row>
     <row r="444">
@@ -10400,13 +10400,13 @@
         <v>2008</v>
       </c>
       <c r="D444" t="n">
-        <v>292030000</v>
+        <v>511220000</v>
       </c>
       <c r="E444" t="n">
-        <v>0</v>
+        <v>98020000</v>
       </c>
       <c r="F444" t="n">
-        <v>0</v>
+        <v>17210000</v>
       </c>
     </row>
     <row r="445">
@@ -10420,13 +10420,13 @@
         <v>2009</v>
       </c>
       <c r="D445" t="n">
-        <v>364850000</v>
+        <v>626000000</v>
       </c>
       <c r="E445" t="n">
-        <v>0</v>
+        <v>54240000</v>
       </c>
       <c r="F445" t="n">
-        <v>0</v>
+        <v>13740000</v>
       </c>
     </row>
     <row r="446">
@@ -10440,13 +10440,13 @@
         <v>2010</v>
       </c>
       <c r="D446" t="n">
-        <v>206440000</v>
+        <v>555720000</v>
       </c>
       <c r="E446" t="n">
-        <v>40000</v>
+        <v>56370000</v>
       </c>
       <c r="F446" t="n">
-        <v>0</v>
+        <v>11610000</v>
       </c>
     </row>
     <row r="447">
@@ -10460,13 +10460,13 @@
         <v>2011</v>
       </c>
       <c r="D447" t="n">
-        <v>172960000</v>
+        <v>507110000</v>
       </c>
       <c r="E447" t="n">
-        <v>130000</v>
+        <v>60450000</v>
       </c>
       <c r="F447" t="n">
-        <v>0</v>
+        <v>12250000</v>
       </c>
     </row>
     <row r="448">
@@ -10480,13 +10480,13 @@
         <v>2012</v>
       </c>
       <c r="D448" t="n">
-        <v>202680000</v>
+        <v>534760000</v>
       </c>
       <c r="E448" t="n">
-        <v>20000</v>
+        <v>56160000</v>
       </c>
       <c r="F448" t="n">
-        <v>0</v>
+        <v>10920000</v>
       </c>
     </row>
     <row r="449">
@@ -10500,13 +10500,13 @@
         <v>2013</v>
       </c>
       <c r="D449" t="n">
-        <v>227770000</v>
+        <v>446500000</v>
       </c>
       <c r="E449" t="n">
-        <v>270000</v>
+        <v>56400000</v>
       </c>
       <c r="F449" t="n">
-        <v>0</v>
+        <v>11260000</v>
       </c>
     </row>
     <row r="450">
@@ -10520,13 +10520,13 @@
         <v>2000</v>
       </c>
       <c r="D450" t="n">
-        <v>236310000</v>
+        <v>124010000</v>
       </c>
       <c r="E450" t="n">
-        <v>24410000</v>
+        <v>46000000</v>
       </c>
       <c r="F450" t="n">
-        <v>7760000</v>
+        <v>8300000</v>
       </c>
     </row>
     <row r="451">
@@ -10540,13 +10540,13 @@
         <v>2001</v>
       </c>
       <c r="D451" t="n">
-        <v>342900000</v>
+        <v>185410000</v>
       </c>
       <c r="E451" t="n">
-        <v>29790000</v>
+        <v>60540000</v>
       </c>
       <c r="F451" t="n">
-        <v>7230000</v>
+        <v>9010000</v>
       </c>
     </row>
     <row r="452">
@@ -10560,13 +10560,13 @@
         <v>2002</v>
       </c>
       <c r="D452" t="n">
-        <v>405240000</v>
+        <v>132970000</v>
       </c>
       <c r="E452" t="n">
-        <v>48220000</v>
+        <v>128140000</v>
       </c>
       <c r="F452" t="n">
-        <v>12280000</v>
+        <v>8640000</v>
       </c>
     </row>
     <row r="453">
@@ -10580,13 +10580,13 @@
         <v>2003</v>
       </c>
       <c r="D453" t="n">
-        <v>392460000</v>
+        <v>133360000</v>
       </c>
       <c r="E453" t="n">
-        <v>56220000</v>
+        <v>19790000</v>
       </c>
       <c r="F453" t="n">
-        <v>13250000</v>
+        <v>6420000</v>
       </c>
     </row>
     <row r="454">
@@ -10600,13 +10600,13 @@
         <v>2004</v>
       </c>
       <c r="D454" t="n">
-        <v>450730000</v>
+        <v>134060000</v>
       </c>
       <c r="E454" t="n">
-        <v>46780000</v>
+        <v>70260000</v>
       </c>
       <c r="F454" t="n">
-        <v>12400000</v>
+        <v>6390000</v>
       </c>
     </row>
     <row r="455">
@@ -10620,13 +10620,13 @@
         <v>2005</v>
       </c>
       <c r="D455" t="n">
-        <v>515790000</v>
+        <v>216300000</v>
       </c>
       <c r="E455" t="n">
-        <v>60850000</v>
+        <v>14450000</v>
       </c>
       <c r="F455" t="n">
-        <v>13740000</v>
+        <v>3760000</v>
       </c>
     </row>
     <row r="456">
@@ -10640,13 +10640,13 @@
         <v>2006</v>
       </c>
       <c r="D456" t="n">
-        <v>388780000</v>
+        <v>137320000</v>
       </c>
       <c r="E456" t="n">
-        <v>56620000</v>
+        <v>17670000</v>
       </c>
       <c r="F456" t="n">
-        <v>13880000</v>
+        <v>5550000</v>
       </c>
     </row>
     <row r="457">
@@ -10660,13 +10660,13 @@
         <v>2007</v>
       </c>
       <c r="D457" t="n">
-        <v>427550000</v>
+        <v>136030000</v>
       </c>
       <c r="E457" t="n">
-        <v>49200000</v>
+        <v>21220000</v>
       </c>
       <c r="F457" t="n">
-        <v>13300000</v>
+        <v>5290000</v>
       </c>
     </row>
     <row r="458">
@@ -10680,13 +10680,13 @@
         <v>2008</v>
       </c>
       <c r="D458" t="n">
-        <v>511220000</v>
+        <v>132740000</v>
       </c>
       <c r="E458" t="n">
-        <v>98020000</v>
+        <v>22770000</v>
       </c>
       <c r="F458" t="n">
-        <v>17210000</v>
+        <v>4980000</v>
       </c>
     </row>
     <row r="459">
@@ -10700,13 +10700,13 @@
         <v>2009</v>
       </c>
       <c r="D459" t="n">
-        <v>626000000</v>
+        <v>108010000</v>
       </c>
       <c r="E459" t="n">
-        <v>54240000</v>
+        <v>25650000</v>
       </c>
       <c r="F459" t="n">
-        <v>13740000</v>
+        <v>4390000</v>
       </c>
     </row>
     <row r="460">
@@ -10720,13 +10720,13 @@
         <v>2010</v>
       </c>
       <c r="D460" t="n">
-        <v>555720000</v>
+        <v>226670000</v>
       </c>
       <c r="E460" t="n">
-        <v>56370000</v>
+        <v>23790000</v>
       </c>
       <c r="F460" t="n">
-        <v>11610000</v>
+        <v>4070000</v>
       </c>
     </row>
     <row r="461">
@@ -10740,13 +10740,13 @@
         <v>2011</v>
       </c>
       <c r="D461" t="n">
-        <v>507110000</v>
+        <v>174390000</v>
       </c>
       <c r="E461" t="n">
-        <v>60450000</v>
+        <v>20160000</v>
       </c>
       <c r="F461" t="n">
-        <v>12250000</v>
+        <v>10800000</v>
       </c>
     </row>
     <row r="462">
@@ -10760,13 +10760,13 @@
         <v>2012</v>
       </c>
       <c r="D462" t="n">
-        <v>534760000</v>
+        <v>142460000</v>
       </c>
       <c r="E462" t="n">
-        <v>56160000</v>
+        <v>17620000</v>
       </c>
       <c r="F462" t="n">
-        <v>10920000</v>
+        <v>7900000</v>
       </c>
     </row>
     <row r="463">
@@ -10780,13 +10780,13 @@
         <v>2013</v>
       </c>
       <c r="D463" t="n">
-        <v>446500000</v>
+        <v>92800000</v>
       </c>
       <c r="E463" t="n">
-        <v>56400000</v>
+        <v>15620000</v>
       </c>
       <c r="F463" t="n">
-        <v>11260000</v>
+        <v>7300000</v>
       </c>
     </row>
     <row r="464">
@@ -10800,13 +10800,13 @@
         <v>2000</v>
       </c>
       <c r="D464" t="n">
-        <v>124010000</v>
+        <v>3313260000</v>
       </c>
       <c r="E464" t="n">
-        <v>46000000</v>
+        <v>901440000</v>
       </c>
       <c r="F464" t="n">
-        <v>8300000</v>
+        <v>627640000</v>
       </c>
     </row>
     <row r="465">
@@ -10820,13 +10820,13 @@
         <v>2001</v>
       </c>
       <c r="D465" t="n">
-        <v>185410000</v>
+        <v>3427410000</v>
       </c>
       <c r="E465" t="n">
-        <v>60540000</v>
+        <v>1086170000</v>
       </c>
       <c r="F465" t="n">
-        <v>9010000</v>
+        <v>631440000</v>
       </c>
     </row>
     <row r="466">
@@ -10840,13 +10840,13 @@
         <v>2002</v>
       </c>
       <c r="D466" t="n">
-        <v>132970000</v>
+        <v>3538670000</v>
       </c>
       <c r="E466" t="n">
-        <v>128140000</v>
+        <v>1328610000</v>
       </c>
       <c r="F466" t="n">
-        <v>8640000</v>
+        <v>645800000</v>
       </c>
     </row>
     <row r="467">
@@ -10860,13 +10860,13 @@
         <v>2003</v>
       </c>
       <c r="D467" t="n">
-        <v>133360000</v>
+        <v>3283280000</v>
       </c>
       <c r="E467" t="n">
-        <v>19790000</v>
+        <v>1478050000</v>
       </c>
       <c r="F467" t="n">
-        <v>6420000</v>
+        <v>662760000</v>
       </c>
     </row>
     <row r="468">
@@ -10880,13 +10880,13 @@
         <v>2004</v>
       </c>
       <c r="D468" t="n">
-        <v>134060000</v>
+        <v>3589350000</v>
       </c>
       <c r="E468" t="n">
-        <v>70260000</v>
+        <v>1490760000</v>
       </c>
       <c r="F468" t="n">
-        <v>6390000</v>
+        <v>664900000</v>
       </c>
     </row>
     <row r="469">
@@ -10900,13 +10900,13 @@
         <v>2005</v>
       </c>
       <c r="D469" t="n">
-        <v>216300000</v>
+        <v>3824160000</v>
       </c>
       <c r="E469" t="n">
-        <v>14450000</v>
+        <v>1594410000</v>
       </c>
       <c r="F469" t="n">
-        <v>3760000</v>
+        <v>626310000</v>
       </c>
     </row>
     <row r="470">
@@ -10920,13 +10920,13 @@
         <v>2006</v>
       </c>
       <c r="D470" t="n">
-        <v>137320000</v>
+        <v>3298340000</v>
       </c>
       <c r="E470" t="n">
-        <v>17670000</v>
+        <v>1753250000</v>
       </c>
       <c r="F470" t="n">
-        <v>5550000</v>
+        <v>638250000</v>
       </c>
     </row>
     <row r="471">
@@ -10940,13 +10940,13 @@
         <v>2007</v>
       </c>
       <c r="D471" t="n">
-        <v>136030000</v>
+        <v>3486210000</v>
       </c>
       <c r="E471" t="n">
-        <v>21220000</v>
+        <v>1816390000</v>
       </c>
       <c r="F471" t="n">
-        <v>5290000</v>
+        <v>622830000</v>
       </c>
     </row>
     <row r="472">
@@ -10960,13 +10960,13 @@
         <v>2008</v>
       </c>
       <c r="D472" t="n">
-        <v>132740000</v>
+        <v>3375090000</v>
       </c>
       <c r="E472" t="n">
-        <v>22770000</v>
+        <v>1866050000</v>
       </c>
       <c r="F472" t="n">
-        <v>4980000</v>
+        <v>607870000</v>
       </c>
     </row>
     <row r="473">
@@ -10980,13 +10980,13 @@
         <v>2009</v>
       </c>
       <c r="D473" t="n">
-        <v>108010000</v>
+        <v>3088330000</v>
       </c>
       <c r="E473" t="n">
-        <v>25650000</v>
+        <v>1945250000</v>
       </c>
       <c r="F473" t="n">
-        <v>4390000</v>
+        <v>579480000</v>
       </c>
     </row>
     <row r="474">
@@ -11000,13 +11000,13 @@
         <v>2010</v>
       </c>
       <c r="D474" t="n">
-        <v>226670000</v>
+        <v>2742240000</v>
       </c>
       <c r="E474" t="n">
-        <v>23790000</v>
+        <v>2097680000</v>
       </c>
       <c r="F474" t="n">
-        <v>4070000</v>
+        <v>574140000</v>
       </c>
     </row>
     <row r="475">
@@ -11020,13 +11020,13 @@
         <v>2011</v>
       </c>
       <c r="D475" t="n">
-        <v>174390000</v>
+        <v>2569760000</v>
       </c>
       <c r="E475" t="n">
-        <v>20160000</v>
+        <v>3293160000</v>
       </c>
       <c r="F475" t="n">
-        <v>10800000</v>
+        <v>558490000</v>
       </c>
     </row>
     <row r="476">
@@ -11040,13 +11040,13 @@
         <v>2012</v>
       </c>
       <c r="D476" t="n">
-        <v>142460000</v>
+        <v>2406790000</v>
       </c>
       <c r="E476" t="n">
-        <v>17620000</v>
+        <v>2600900000</v>
       </c>
       <c r="F476" t="n">
-        <v>7900000</v>
+        <v>527280000</v>
       </c>
     </row>
     <row r="477">
@@ -11060,13 +11060,13 @@
         <v>2013</v>
       </c>
       <c r="D477" t="n">
-        <v>92800000</v>
+        <v>1834200000</v>
       </c>
       <c r="E477" t="n">
-        <v>15620000</v>
+        <v>2698700000</v>
       </c>
       <c r="F477" t="n">
-        <v>7300000</v>
+        <v>475340000</v>
       </c>
     </row>
     <row r="478">
@@ -11080,13 +11080,13 @@
         <v>2000</v>
       </c>
       <c r="D478" t="n">
-        <v>3313260000</v>
+        <v>414490000</v>
       </c>
       <c r="E478" t="n">
-        <v>901440000</v>
+        <v>137860000</v>
       </c>
       <c r="F478" t="n">
-        <v>627640000</v>
+        <v>23040000</v>
       </c>
     </row>
     <row r="479">
@@ -11100,13 +11100,13 @@
         <v>2001</v>
       </c>
       <c r="D479" t="n">
-        <v>3427410000</v>
+        <v>674570000</v>
       </c>
       <c r="E479" t="n">
-        <v>1086170000</v>
+        <v>133690000</v>
       </c>
       <c r="F479" t="n">
-        <v>631440000</v>
+        <v>26650000</v>
       </c>
     </row>
     <row r="480">
@@ -11120,13 +11120,13 @@
         <v>2002</v>
       </c>
       <c r="D480" t="n">
-        <v>3538670000</v>
+        <v>738420000</v>
       </c>
       <c r="E480" t="n">
-        <v>1328610000</v>
+        <v>139190000</v>
       </c>
       <c r="F480" t="n">
-        <v>645800000</v>
+        <v>21560000</v>
       </c>
     </row>
     <row r="481">
@@ -11140,13 +11140,13 @@
         <v>2003</v>
       </c>
       <c r="D481" t="n">
-        <v>3283280000</v>
+        <v>1090140000</v>
       </c>
       <c r="E481" t="n">
-        <v>1478050000</v>
+        <v>96280000</v>
       </c>
       <c r="F481" t="n">
-        <v>662760000</v>
+        <v>19960000</v>
       </c>
     </row>
     <row r="482">
@@ -11160,13 +11160,13 @@
         <v>2004</v>
       </c>
       <c r="D482" t="n">
-        <v>3589350000</v>
+        <v>741530000</v>
       </c>
       <c r="E482" t="n">
-        <v>1490760000</v>
+        <v>125930000</v>
       </c>
       <c r="F482" t="n">
-        <v>664900000</v>
+        <v>17160000</v>
       </c>
     </row>
     <row r="483">
@@ -11180,13 +11180,13 @@
         <v>2005</v>
       </c>
       <c r="D483" t="n">
-        <v>3824160000</v>
+        <v>845250000</v>
       </c>
       <c r="E483" t="n">
-        <v>1594410000</v>
+        <v>127400000</v>
       </c>
       <c r="F483" t="n">
-        <v>626310000</v>
+        <v>14420000</v>
       </c>
     </row>
     <row r="484">
@@ -11200,13 +11200,13 @@
         <v>2006</v>
       </c>
       <c r="D484" t="n">
-        <v>3298340000</v>
+        <v>1191460000</v>
       </c>
       <c r="E484" t="n">
-        <v>1753250000</v>
+        <v>70060000</v>
       </c>
       <c r="F484" t="n">
-        <v>638250000</v>
+        <v>12430000</v>
       </c>
     </row>
     <row r="485">
@@ -11220,13 +11220,13 @@
         <v>2007</v>
       </c>
       <c r="D485" t="n">
-        <v>3486210000</v>
+        <v>829930000</v>
       </c>
       <c r="E485" t="n">
-        <v>1816390000</v>
+        <v>65230000</v>
       </c>
       <c r="F485" t="n">
-        <v>622830000</v>
+        <v>10520000</v>
       </c>
     </row>
     <row r="486">
@@ -11240,13 +11240,13 @@
         <v>2008</v>
       </c>
       <c r="D486" t="n">
-        <v>3375090000</v>
+        <v>1048950000</v>
       </c>
       <c r="E486" t="n">
-        <v>1866050000</v>
+        <v>57130000</v>
       </c>
       <c r="F486" t="n">
-        <v>607870000</v>
+        <v>8630000</v>
       </c>
     </row>
     <row r="487">
@@ -11260,13 +11260,13 @@
         <v>2009</v>
       </c>
       <c r="D487" t="n">
-        <v>3088330000</v>
+        <v>1151070000</v>
       </c>
       <c r="E487" t="n">
-        <v>1945250000</v>
+        <v>59610000</v>
       </c>
       <c r="F487" t="n">
-        <v>579480000</v>
+        <v>8380000</v>
       </c>
     </row>
     <row r="488">
@@ -11280,13 +11280,13 @@
         <v>2010</v>
       </c>
       <c r="D488" t="n">
-        <v>2742240000</v>
+        <v>999520000</v>
       </c>
       <c r="E488" t="n">
-        <v>2097680000</v>
+        <v>76160000</v>
       </c>
       <c r="F488" t="n">
-        <v>574140000</v>
+        <v>6160000</v>
       </c>
     </row>
     <row r="489">
@@ -11300,13 +11300,13 @@
         <v>2011</v>
       </c>
       <c r="D489" t="n">
-        <v>2569760000</v>
+        <v>1041110000</v>
       </c>
       <c r="E489" t="n">
-        <v>3293160000</v>
+        <v>40810000</v>
       </c>
       <c r="F489" t="n">
-        <v>558490000</v>
+        <v>6600000</v>
       </c>
     </row>
     <row r="490">
@@ -11320,13 +11320,13 @@
         <v>2012</v>
       </c>
       <c r="D490" t="n">
-        <v>2406790000</v>
+        <v>807750000</v>
       </c>
       <c r="E490" t="n">
-        <v>2600900000</v>
+        <v>43170000</v>
       </c>
       <c r="F490" t="n">
-        <v>527280000</v>
+        <v>5840000</v>
       </c>
     </row>
     <row r="491">
@@ -11340,13 +11340,13 @@
         <v>2013</v>
       </c>
       <c r="D491" t="n">
-        <v>1834200000</v>
+        <v>875870000</v>
       </c>
       <c r="E491" t="n">
-        <v>2698700000</v>
+        <v>45290000</v>
       </c>
       <c r="F491" t="n">
-        <v>475340000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="492">
@@ -11360,13 +11360,13 @@
         <v>2000</v>
       </c>
       <c r="D492" t="n">
-        <v>414490000</v>
+        <v>36960000</v>
       </c>
       <c r="E492" t="n">
-        <v>137860000</v>
+        <v>5560000</v>
       </c>
       <c r="F492" t="n">
-        <v>23040000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="493">
@@ -11380,13 +11380,13 @@
         <v>2001</v>
       </c>
       <c r="D493" t="n">
-        <v>674570000</v>
+        <v>52160000</v>
       </c>
       <c r="E493" t="n">
-        <v>133690000</v>
+        <v>6530000</v>
       </c>
       <c r="F493" t="n">
-        <v>26650000</v>
+        <v>1030000</v>
       </c>
     </row>
     <row r="494">
@@ -11400,13 +11400,13 @@
         <v>2002</v>
       </c>
       <c r="D494" t="n">
-        <v>738420000</v>
+        <v>49360000</v>
       </c>
       <c r="E494" t="n">
-        <v>139190000</v>
+        <v>6180000</v>
       </c>
       <c r="F494" t="n">
-        <v>21560000</v>
+        <v>1060000</v>
       </c>
     </row>
     <row r="495">
@@ -11420,13 +11420,13 @@
         <v>2003</v>
       </c>
       <c r="D495" t="n">
-        <v>1090140000</v>
+        <v>37780000</v>
       </c>
       <c r="E495" t="n">
-        <v>96280000</v>
+        <v>5250000</v>
       </c>
       <c r="F495" t="n">
-        <v>19960000</v>
+        <v>1710000</v>
       </c>
     </row>
     <row r="496">
@@ -11440,13 +11440,13 @@
         <v>2004</v>
       </c>
       <c r="D496" t="n">
-        <v>741530000</v>
+        <v>36610000</v>
       </c>
       <c r="E496" t="n">
-        <v>125930000</v>
+        <v>5210000</v>
       </c>
       <c r="F496" t="n">
-        <v>17160000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="497">
@@ -11460,13 +11460,13 @@
         <v>2005</v>
       </c>
       <c r="D497" t="n">
-        <v>845250000</v>
+        <v>32390000</v>
       </c>
       <c r="E497" t="n">
-        <v>127400000</v>
+        <v>5610000</v>
       </c>
       <c r="F497" t="n">
-        <v>14420000</v>
+        <v>1380000</v>
       </c>
     </row>
     <row r="498">
@@ -11480,13 +11480,13 @@
         <v>2006</v>
       </c>
       <c r="D498" t="n">
-        <v>1191460000</v>
+        <v>41200000</v>
       </c>
       <c r="E498" t="n">
-        <v>70060000</v>
+        <v>5010000</v>
       </c>
       <c r="F498" t="n">
-        <v>12430000</v>
+        <v>1570000</v>
       </c>
     </row>
     <row r="499">
@@ -11500,13 +11500,13 @@
         <v>2007</v>
       </c>
       <c r="D499" t="n">
-        <v>829930000</v>
+        <v>52070000</v>
       </c>
       <c r="E499" t="n">
-        <v>65230000</v>
+        <v>5900000</v>
       </c>
       <c r="F499" t="n">
-        <v>10520000</v>
+        <v>2150000</v>
       </c>
     </row>
     <row r="500">
@@ -11520,13 +11520,13 @@
         <v>2008</v>
       </c>
       <c r="D500" t="n">
-        <v>1048950000</v>
+        <v>47780000</v>
       </c>
       <c r="E500" t="n">
-        <v>57130000</v>
+        <v>7930000</v>
       </c>
       <c r="F500" t="n">
-        <v>8630000</v>
+        <v>6510000</v>
       </c>
     </row>
     <row r="501">
@@ -11540,13 +11540,13 @@
         <v>2009</v>
       </c>
       <c r="D501" t="n">
-        <v>1151070000</v>
+        <v>59630000</v>
       </c>
       <c r="E501" t="n">
-        <v>59610000</v>
+        <v>9720000</v>
       </c>
       <c r="F501" t="n">
-        <v>8380000</v>
+        <v>2760000</v>
       </c>
     </row>
     <row r="502">
@@ -11560,13 +11560,13 @@
         <v>2010</v>
       </c>
       <c r="D502" t="n">
-        <v>999520000</v>
+        <v>74920000</v>
       </c>
       <c r="E502" t="n">
-        <v>76160000</v>
+        <v>6390000</v>
       </c>
       <c r="F502" t="n">
-        <v>6160000</v>
+        <v>1510000</v>
       </c>
     </row>
     <row r="503">
@@ -11580,13 +11580,13 @@
         <v>2011</v>
       </c>
       <c r="D503" t="n">
-        <v>1041110000</v>
+        <v>59010000</v>
       </c>
       <c r="E503" t="n">
-        <v>40810000</v>
+        <v>9480000</v>
       </c>
       <c r="F503" t="n">
-        <v>6600000</v>
+        <v>2090000</v>
       </c>
     </row>
     <row r="504">
@@ -11600,13 +11600,13 @@
         <v>2012</v>
       </c>
       <c r="D504" t="n">
-        <v>807750000</v>
+        <v>116970000</v>
       </c>
       <c r="E504" t="n">
-        <v>43170000</v>
+        <v>48320000</v>
       </c>
       <c r="F504" t="n">
-        <v>5840000</v>
+        <v>2070000</v>
       </c>
     </row>
     <row r="505">
@@ -11620,13 +11620,13 @@
         <v>2013</v>
       </c>
       <c r="D505" t="n">
-        <v>875870000</v>
+        <v>178590000</v>
       </c>
       <c r="E505" t="n">
-        <v>45290000</v>
+        <v>98470000</v>
       </c>
       <c r="F505" t="n">
-        <v>4500000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="506">
@@ -11640,13 +11640,13 @@
         <v>2000</v>
       </c>
       <c r="D506" t="n">
-        <v>36960000</v>
+        <v>85270000</v>
       </c>
       <c r="E506" t="n">
-        <v>5560000</v>
+        <v>31460000</v>
       </c>
       <c r="F506" t="n">
-        <v>1300000</v>
+        <v>4150000</v>
       </c>
     </row>
     <row r="507">
@@ -11660,13 +11660,13 @@
         <v>2001</v>
       </c>
       <c r="D507" t="n">
-        <v>52160000</v>
+        <v>146630000</v>
       </c>
       <c r="E507" t="n">
-        <v>6530000</v>
+        <v>29750000</v>
       </c>
       <c r="F507" t="n">
-        <v>1030000</v>
+        <v>9890000</v>
       </c>
     </row>
     <row r="508">
@@ -11680,13 +11680,13 @@
         <v>2002</v>
       </c>
       <c r="D508" t="n">
-        <v>49360000</v>
+        <v>139380000</v>
       </c>
       <c r="E508" t="n">
-        <v>6180000</v>
+        <v>48830000</v>
       </c>
       <c r="F508" t="n">
-        <v>1060000</v>
+        <v>3780000</v>
       </c>
     </row>
     <row r="509">
@@ -11700,13 +11700,13 @@
         <v>2003</v>
       </c>
       <c r="D509" t="n">
-        <v>37780000</v>
+        <v>117410000</v>
       </c>
       <c r="E509" t="n">
-        <v>5250000</v>
+        <v>26360000</v>
       </c>
       <c r="F509" t="n">
-        <v>1710000</v>
+        <v>12430000</v>
       </c>
     </row>
     <row r="510">
@@ -11720,13 +11720,13 @@
         <v>2004</v>
       </c>
       <c r="D510" t="n">
-        <v>36610000</v>
+        <v>195970000</v>
       </c>
       <c r="E510" t="n">
-        <v>5210000</v>
+        <v>56960000</v>
       </c>
       <c r="F510" t="n">
-        <v>1300000</v>
+        <v>50700000</v>
       </c>
     </row>
     <row r="511">
@@ -11740,13 +11740,13 @@
         <v>2005</v>
       </c>
       <c r="D511" t="n">
-        <v>32390000</v>
+        <v>1794700000</v>
       </c>
       <c r="E511" t="n">
-        <v>5610000</v>
+        <v>132540000</v>
       </c>
       <c r="F511" t="n">
-        <v>1380000</v>
+        <v>18950000</v>
       </c>
     </row>
     <row r="512">
@@ -11760,13 +11760,13 @@
         <v>2006</v>
       </c>
       <c r="D512" t="n">
-        <v>41200000</v>
+        <v>482300000</v>
       </c>
       <c r="E512" t="n">
-        <v>5010000</v>
+        <v>189750000</v>
       </c>
       <c r="F512" t="n">
-        <v>1570000</v>
+        <v>14980000</v>
       </c>
     </row>
     <row r="513">
@@ -11780,13 +11780,13 @@
         <v>2007</v>
       </c>
       <c r="D513" t="n">
-        <v>52070000</v>
+        <v>158710000</v>
       </c>
       <c r="E513" t="n">
-        <v>5900000</v>
+        <v>34190000</v>
       </c>
       <c r="F513" t="n">
-        <v>2150000</v>
+        <v>9220000</v>
       </c>
     </row>
     <row r="514">
@@ -11800,13 +11800,13 @@
         <v>2008</v>
       </c>
       <c r="D514" t="n">
-        <v>47780000</v>
+        <v>497530000</v>
       </c>
       <c r="E514" t="n">
-        <v>7930000</v>
+        <v>37360000</v>
       </c>
       <c r="F514" t="n">
-        <v>6510000</v>
+        <v>22170000</v>
       </c>
     </row>
     <row r="515">
@@ -11820,13 +11820,13 @@
         <v>2009</v>
       </c>
       <c r="D515" t="n">
-        <v>59630000</v>
+        <v>321560000</v>
       </c>
       <c r="E515" t="n">
-        <v>9720000</v>
+        <v>44560000</v>
       </c>
       <c r="F515" t="n">
-        <v>2760000</v>
+        <v>18030000</v>
       </c>
     </row>
     <row r="516">
@@ -11840,13 +11840,13 @@
         <v>2010</v>
       </c>
       <c r="D516" t="n">
-        <v>74920000</v>
+        <v>1626990000</v>
       </c>
       <c r="E516" t="n">
-        <v>6390000</v>
+        <v>304740000</v>
       </c>
       <c r="F516" t="n">
-        <v>1510000</v>
+        <v>4520000</v>
       </c>
     </row>
     <row r="517">
@@ -11860,13 +11860,13 @@
         <v>2011</v>
       </c>
       <c r="D517" t="n">
-        <v>59010000</v>
+        <v>333230000</v>
       </c>
       <c r="E517" t="n">
-        <v>9480000</v>
+        <v>86690000</v>
       </c>
       <c r="F517" t="n">
-        <v>2090000</v>
+        <v>1780000</v>
       </c>
     </row>
     <row r="518">
@@ -11880,13 +11880,13 @@
         <v>2012</v>
       </c>
       <c r="D518" t="n">
-        <v>116970000</v>
+        <v>190430000</v>
       </c>
       <c r="E518" t="n">
-        <v>48320000</v>
+        <v>51820000</v>
       </c>
       <c r="F518" t="n">
-        <v>2070000</v>
+        <v>6310000</v>
       </c>
     </row>
     <row r="519">
@@ -11900,13 +11900,13 @@
         <v>2013</v>
       </c>
       <c r="D519" t="n">
-        <v>178590000</v>
+        <v>175500000</v>
       </c>
       <c r="E519" t="n">
-        <v>98470000</v>
+        <v>27560000</v>
       </c>
       <c r="F519" t="n">
-        <v>310000</v>
+        <v>2240000</v>
       </c>
     </row>
     <row r="520">
@@ -11920,13 +11920,13 @@
         <v>2000</v>
       </c>
       <c r="D520" t="n">
-        <v>85270000</v>
+        <v>9530000</v>
       </c>
       <c r="E520" t="n">
-        <v>31460000</v>
+        <v>120000</v>
       </c>
       <c r="F520" t="n">
-        <v>4150000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="521">
@@ -11940,13 +11940,13 @@
         <v>2001</v>
       </c>
       <c r="D521" t="n">
-        <v>146630000</v>
+        <v>11690000</v>
       </c>
       <c r="E521" t="n">
-        <v>29750000</v>
+        <v>280000</v>
       </c>
       <c r="F521" t="n">
-        <v>9890000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="522">
@@ -11960,13 +11960,13 @@
         <v>2002</v>
       </c>
       <c r="D522" t="n">
-        <v>139380000</v>
+        <v>8770000</v>
       </c>
       <c r="E522" t="n">
-        <v>48830000</v>
+        <v>320000</v>
       </c>
       <c r="F522" t="n">
-        <v>3780000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="523">
@@ -11980,13 +11980,13 @@
         <v>2003</v>
       </c>
       <c r="D523" t="n">
-        <v>117410000</v>
+        <v>10580000</v>
       </c>
       <c r="E523" t="n">
-        <v>26360000</v>
+        <v>350000</v>
       </c>
       <c r="F523" t="n">
-        <v>12430000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="524">
@@ -12000,13 +12000,13 @@
         <v>2004</v>
       </c>
       <c r="D524" t="n">
-        <v>195970000</v>
+        <v>13700000</v>
       </c>
       <c r="E524" t="n">
-        <v>56960000</v>
+        <v>510000</v>
       </c>
       <c r="F524" t="n">
-        <v>50700000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="525">
@@ -12020,13 +12020,13 @@
         <v>2005</v>
       </c>
       <c r="D525" t="n">
-        <v>1794700000</v>
+        <v>11770000</v>
       </c>
       <c r="E525" t="n">
-        <v>132540000</v>
+        <v>590000</v>
       </c>
       <c r="F525" t="n">
-        <v>18950000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="526">
@@ -12040,13 +12040,13 @@
         <v>2006</v>
       </c>
       <c r="D526" t="n">
-        <v>482300000</v>
+        <v>39590000</v>
       </c>
       <c r="E526" t="n">
-        <v>189750000</v>
+        <v>610000</v>
       </c>
       <c r="F526" t="n">
-        <v>14980000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="527">
@@ -12060,13 +12060,13 @@
         <v>2007</v>
       </c>
       <c r="D527" t="n">
-        <v>158710000</v>
+        <v>12600000</v>
       </c>
       <c r="E527" t="n">
-        <v>34190000</v>
+        <v>710000</v>
       </c>
       <c r="F527" t="n">
-        <v>9220000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="528">
@@ -12080,13 +12080,13 @@
         <v>2008</v>
       </c>
       <c r="D528" t="n">
-        <v>497530000</v>
+        <v>7550000</v>
       </c>
       <c r="E528" t="n">
-        <v>37360000</v>
+        <v>740000</v>
       </c>
       <c r="F528" t="n">
-        <v>22170000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="529">
@@ -12100,13 +12100,13 @@
         <v>2009</v>
       </c>
       <c r="D529" t="n">
-        <v>321560000</v>
+        <v>10710000</v>
       </c>
       <c r="E529" t="n">
-        <v>44560000</v>
+        <v>870000</v>
       </c>
       <c r="F529" t="n">
-        <v>18030000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="530">
@@ -12120,13 +12120,13 @@
         <v>2010</v>
       </c>
       <c r="D530" t="n">
-        <v>1626990000</v>
+        <v>16300000</v>
       </c>
       <c r="E530" t="n">
-        <v>304740000</v>
+        <v>900000</v>
       </c>
       <c r="F530" t="n">
-        <v>4520000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="531">
@@ -12140,13 +12140,13 @@
         <v>2011</v>
       </c>
       <c r="D531" t="n">
-        <v>333230000</v>
+        <v>26720000</v>
       </c>
       <c r="E531" t="n">
-        <v>86690000</v>
+        <v>970000</v>
       </c>
       <c r="F531" t="n">
-        <v>1780000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="532">
@@ -12160,13 +12160,13 @@
         <v>2012</v>
       </c>
       <c r="D532" t="n">
-        <v>190430000</v>
+        <v>22180000</v>
       </c>
       <c r="E532" t="n">
-        <v>51820000</v>
+        <v>970000</v>
       </c>
       <c r="F532" t="n">
-        <v>6310000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="533">
@@ -12180,13 +12180,13 @@
         <v>2013</v>
       </c>
       <c r="D533" t="n">
-        <v>175500000</v>
+        <v>16820000</v>
       </c>
       <c r="E533" t="n">
-        <v>27560000</v>
+        <v>1010000</v>
       </c>
       <c r="F533" t="n">
-        <v>2240000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="534">
@@ -12200,13 +12200,13 @@
         <v>2000</v>
       </c>
       <c r="D534" t="n">
-        <v>9530000</v>
+        <v>120190000</v>
       </c>
       <c r="E534" t="n">
-        <v>120000</v>
+        <v>84560000</v>
       </c>
       <c r="F534" t="n">
-        <v>300000</v>
+        <v>22190000</v>
       </c>
     </row>
     <row r="535">
@@ -12220,13 +12220,13 @@
         <v>2001</v>
       </c>
       <c r="D535" t="n">
-        <v>11690000</v>
+        <v>105310000</v>
       </c>
       <c r="E535" t="n">
-        <v>280000</v>
+        <v>87240000</v>
       </c>
       <c r="F535" t="n">
-        <v>300000</v>
+        <v>19090000</v>
       </c>
     </row>
     <row r="536">
@@ -12240,13 +12240,13 @@
         <v>2002</v>
       </c>
       <c r="D536" t="n">
-        <v>8770000</v>
+        <v>87520000</v>
       </c>
       <c r="E536" t="n">
-        <v>320000</v>
+        <v>75320000</v>
       </c>
       <c r="F536" t="n">
-        <v>300000</v>
+        <v>16900000</v>
       </c>
     </row>
     <row r="537">
@@ -12260,13 +12260,13 @@
         <v>2003</v>
       </c>
       <c r="D537" t="n">
-        <v>10580000</v>
+        <v>106360000</v>
       </c>
       <c r="E537" t="n">
-        <v>350000</v>
+        <v>66810000</v>
       </c>
       <c r="F537" t="n">
-        <v>290000</v>
+        <v>14710000</v>
       </c>
     </row>
     <row r="538">
@@ -12280,13 +12280,13 @@
         <v>2004</v>
       </c>
       <c r="D538" t="n">
-        <v>13700000</v>
+        <v>94110000</v>
       </c>
       <c r="E538" t="n">
-        <v>510000</v>
+        <v>74010000</v>
       </c>
       <c r="F538" t="n">
-        <v>400000</v>
+        <v>12430000</v>
       </c>
     </row>
     <row r="539">
@@ -12300,13 +12300,13 @@
         <v>2005</v>
       </c>
       <c r="D539" t="n">
-        <v>11770000</v>
+        <v>83320000</v>
       </c>
       <c r="E539" t="n">
-        <v>590000</v>
+        <v>50900000</v>
       </c>
       <c r="F539" t="n">
-        <v>300000</v>
+        <v>10720000</v>
       </c>
     </row>
     <row r="540">
@@ -12320,13 +12320,13 @@
         <v>2006</v>
       </c>
       <c r="D540" t="n">
-        <v>39590000</v>
+        <v>85730000</v>
       </c>
       <c r="E540" t="n">
-        <v>610000</v>
+        <v>47740000</v>
       </c>
       <c r="F540" t="n">
-        <v>300000</v>
+        <v>9640000</v>
       </c>
     </row>
     <row r="541">
@@ -12340,13 +12340,13 @@
         <v>2007</v>
       </c>
       <c r="D541" t="n">
-        <v>12600000</v>
+        <v>148960000</v>
       </c>
       <c r="E541" t="n">
-        <v>710000</v>
+        <v>82660000</v>
       </c>
       <c r="F541" t="n">
-        <v>280000</v>
+        <v>8720000</v>
       </c>
     </row>
     <row r="542">
@@ -12360,13 +12360,13 @@
         <v>2008</v>
       </c>
       <c r="D542" t="n">
-        <v>7550000</v>
+        <v>118550000</v>
       </c>
       <c r="E542" t="n">
-        <v>740000</v>
+        <v>57050000</v>
       </c>
       <c r="F542" t="n">
-        <v>290000</v>
+        <v>7340000</v>
       </c>
     </row>
     <row r="543">
@@ -12380,13 +12380,13 @@
         <v>2009</v>
       </c>
       <c r="D543" t="n">
-        <v>10710000</v>
+        <v>150300000</v>
       </c>
       <c r="E543" t="n">
-        <v>870000</v>
+        <v>35900000</v>
       </c>
       <c r="F543" t="n">
-        <v>260000</v>
+        <v>6650000</v>
       </c>
     </row>
     <row r="544">
@@ -12400,13 +12400,13 @@
         <v>2010</v>
       </c>
       <c r="D544" t="n">
-        <v>16300000</v>
+        <v>173040000</v>
       </c>
       <c r="E544" t="n">
-        <v>900000</v>
+        <v>73530000</v>
       </c>
       <c r="F544" t="n">
-        <v>280000</v>
+        <v>8150000</v>
       </c>
     </row>
     <row r="545">
@@ -12420,13 +12420,13 @@
         <v>2011</v>
       </c>
       <c r="D545" t="n">
-        <v>26720000</v>
+        <v>74760000</v>
       </c>
       <c r="E545" t="n">
-        <v>970000</v>
+        <v>35740000</v>
       </c>
       <c r="F545" t="n">
-        <v>290000</v>
+        <v>7120000</v>
       </c>
     </row>
     <row r="546">
@@ -12440,13 +12440,13 @@
         <v>2012</v>
       </c>
       <c r="D546" t="n">
-        <v>22180000</v>
+        <v>64630000</v>
       </c>
       <c r="E546" t="n">
-        <v>970000</v>
+        <v>31930000</v>
       </c>
       <c r="F546" t="n">
-        <v>300000</v>
+        <v>6220000</v>
       </c>
     </row>
     <row r="547">
@@ -12460,13 +12460,13 @@
         <v>2013</v>
       </c>
       <c r="D547" t="n">
-        <v>16820000</v>
+        <v>78400000</v>
       </c>
       <c r="E547" t="n">
-        <v>1010000</v>
+        <v>43720000</v>
       </c>
       <c r="F547" t="n">
-        <v>290000</v>
+        <v>5860000</v>
       </c>
     </row>
     <row r="548">
@@ -12480,13 +12480,13 @@
         <v>2000</v>
       </c>
       <c r="D548" t="n">
-        <v>120190000</v>
+        <v>783440000</v>
       </c>
       <c r="E548" t="n">
-        <v>84560000</v>
+        <v>214990000</v>
       </c>
       <c r="F548" t="n">
-        <v>22190000</v>
+        <v>22860000</v>
       </c>
     </row>
     <row r="549">
@@ -12500,13 +12500,13 @@
         <v>2001</v>
       </c>
       <c r="D549" t="n">
-        <v>105310000</v>
+        <v>527940000</v>
       </c>
       <c r="E549" t="n">
-        <v>87240000</v>
+        <v>201980000</v>
       </c>
       <c r="F549" t="n">
-        <v>19090000</v>
+        <v>21590000</v>
       </c>
     </row>
     <row r="550">
@@ -12520,13 +12520,13 @@
         <v>2002</v>
       </c>
       <c r="D550" t="n">
-        <v>87520000</v>
+        <v>2181840000</v>
       </c>
       <c r="E550" t="n">
-        <v>75320000</v>
+        <v>467410000</v>
       </c>
       <c r="F550" t="n">
-        <v>16900000</v>
+        <v>41710000</v>
       </c>
     </row>
     <row r="551">
@@ -12540,13 +12540,13 @@
         <v>2003</v>
       </c>
       <c r="D551" t="n">
-        <v>106360000</v>
+        <v>576950000</v>
       </c>
       <c r="E551" t="n">
-        <v>66810000</v>
+        <v>246420000</v>
       </c>
       <c r="F551" t="n">
-        <v>14710000</v>
+        <v>37730000</v>
       </c>
     </row>
     <row r="552">
@@ -12560,13 +12560,13 @@
         <v>2004</v>
       </c>
       <c r="D552" t="n">
-        <v>94110000</v>
+        <v>421570000</v>
       </c>
       <c r="E552" t="n">
-        <v>74010000</v>
+        <v>230740000</v>
       </c>
       <c r="F552" t="n">
-        <v>12430000</v>
+        <v>11130000</v>
       </c>
     </row>
     <row r="553">
@@ -12580,13 +12580,13 @@
         <v>2005</v>
       </c>
       <c r="D553" t="n">
-        <v>83320000</v>
+        <v>272810000</v>
       </c>
       <c r="E553" t="n">
-        <v>50900000</v>
+        <v>165690000</v>
       </c>
       <c r="F553" t="n">
-        <v>10720000</v>
+        <v>2490000</v>
       </c>
     </row>
     <row r="554">
@@ -12600,13 +12600,13 @@
         <v>2006</v>
       </c>
       <c r="D554" t="n">
-        <v>85730000</v>
+        <v>402010000</v>
       </c>
       <c r="E554" t="n">
-        <v>47740000</v>
+        <v>121470000</v>
       </c>
       <c r="F554" t="n">
-        <v>9640000</v>
+        <v>8860000</v>
       </c>
     </row>
     <row r="555">
@@ -12620,13 +12620,13 @@
         <v>2007</v>
       </c>
       <c r="D555" t="n">
-        <v>148960000</v>
+        <v>325760000</v>
       </c>
       <c r="E555" t="n">
-        <v>82660000</v>
+        <v>143550000</v>
       </c>
       <c r="F555" t="n">
-        <v>8720000</v>
+        <v>16210000</v>
       </c>
     </row>
     <row r="556">
@@ -12640,13 +12640,13 @@
         <v>2008</v>
       </c>
       <c r="D556" t="n">
-        <v>118550000</v>
+        <v>831270000</v>
       </c>
       <c r="E556" t="n">
-        <v>57050000</v>
+        <v>205100000</v>
       </c>
       <c r="F556" t="n">
-        <v>7340000</v>
+        <v>66290000</v>
       </c>
     </row>
     <row r="557">
@@ -12660,13 +12660,13 @@
         <v>2009</v>
       </c>
       <c r="D557" t="n">
-        <v>150300000</v>
+        <v>2556070000</v>
       </c>
       <c r="E557" t="n">
-        <v>35900000</v>
+        <v>164120000</v>
       </c>
       <c r="F557" t="n">
-        <v>6650000</v>
+        <v>54760000</v>
       </c>
     </row>
     <row r="558">
@@ -12680,13 +12680,13 @@
         <v>2010</v>
       </c>
       <c r="D558" t="n">
-        <v>173040000</v>
+        <v>982170000</v>
       </c>
       <c r="E558" t="n">
-        <v>73530000</v>
+        <v>113160000</v>
       </c>
       <c r="F558" t="n">
-        <v>8150000</v>
+        <v>32810000</v>
       </c>
     </row>
     <row r="559">
@@ -12700,13 +12700,13 @@
         <v>2011</v>
       </c>
       <c r="D559" t="n">
-        <v>74760000</v>
+        <v>1493390000</v>
       </c>
       <c r="E559" t="n">
-        <v>35740000</v>
+        <v>114040000</v>
       </c>
       <c r="F559" t="n">
-        <v>7120000</v>
+        <v>25590000</v>
       </c>
     </row>
     <row r="560">
@@ -12720,13 +12720,13 @@
         <v>2012</v>
       </c>
       <c r="D560" t="n">
-        <v>64630000</v>
+        <v>4696970000</v>
       </c>
       <c r="E560" t="n">
-        <v>31930000</v>
+        <v>2061350000</v>
       </c>
       <c r="F560" t="n">
-        <v>6220000</v>
+        <v>30850000</v>
       </c>
     </row>
     <row r="561">
@@ -12740,13 +12740,13 @@
         <v>2013</v>
       </c>
       <c r="D561" t="n">
-        <v>78400000</v>
+        <v>2097770000</v>
       </c>
       <c r="E561" t="n">
-        <v>43720000</v>
+        <v>856900000</v>
       </c>
       <c r="F561" t="n">
-        <v>5860000</v>
+        <v>18250000</v>
       </c>
     </row>
     <row r="562">
